--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111790785</v>
+        <v>111790625</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489818.2822038208</v>
+        <v>489824.6884970492</v>
       </c>
       <c r="R2" t="n">
-        <v>6949032.207674611</v>
+        <v>6949020.70113107</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Många träd med mycket lav i området</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111790625</v>
+        <v>111790785</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489824.6884970492</v>
+        <v>489818.2822038208</v>
       </c>
       <c r="R4" t="n">
-        <v>6949020.70113107</v>
+        <v>6949032.207674611</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +992,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Många träd med mycket lav i området</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111790625</v>
+        <v>111792337</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489824.6884970492</v>
+        <v>489763.7116335144</v>
       </c>
       <c r="R2" t="n">
-        <v>6949020.70113107</v>
+        <v>6949091.647604217</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111792337</v>
+        <v>111790625</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489763.7116335144</v>
+        <v>489824.6884970492</v>
       </c>
       <c r="R3" t="n">
-        <v>6949091.647604217</v>
+        <v>6949020.70113107</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111792337</v>
+        <v>111790625</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489763.7116335144</v>
+        <v>489824.6884970492</v>
       </c>
       <c r="R2" t="n">
-        <v>6949091.647604217</v>
+        <v>6949020.70113107</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111790625</v>
+        <v>111790785</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489824.6884970492</v>
+        <v>489818.2822038208</v>
       </c>
       <c r="R3" t="n">
-        <v>6949020.70113107</v>
+        <v>6949032.207674611</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Många träd med mycket lav i området</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111790785</v>
+        <v>111792337</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489818.2822038208</v>
+        <v>489763.7116335144</v>
       </c>
       <c r="R4" t="n">
-        <v>6949032.207674611</v>
+        <v>6949091.647604217</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,12 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Många träd med mycket lav i området</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,6 +1021,122 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111919588</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Gillhov, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>490132.6970436619</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6948774.399184751</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111790785</v>
+        <v>111792337</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489818.2822038208</v>
+        <v>489763.7116335144</v>
       </c>
       <c r="R3" t="n">
-        <v>6949032.207674611</v>
+        <v>6949091.647604217</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,12 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Många träd med mycket lav i området</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111792337</v>
+        <v>111790785</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489763.7116335144</v>
+        <v>489818.2822038208</v>
       </c>
       <c r="R4" t="n">
-        <v>6949091.647604217</v>
+        <v>6949032.207674611</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +992,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Många träd med mycket lav i området</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,122 +1021,6 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>111919588</v>
-      </c>
-      <c r="B5" t="n">
-        <v>78578</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6458</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lunglav</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Gillhov, Jmt</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>490132.6970436619</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6948774.399184751</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Berg</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Jämtland</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Hackås</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>Erik Wilhelmsson</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>Erik Wilhelmsson</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111790625</v>
+        <v>111790785</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489824.6884970492</v>
+        <v>489818.2822038208</v>
       </c>
       <c r="R2" t="n">
-        <v>6949020.70113107</v>
+        <v>6949032.207674611</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Många träd med mycket lav i området</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111792337</v>
+        <v>111790625</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489763.7116335144</v>
+        <v>489824.6884970492</v>
       </c>
       <c r="R3" t="n">
-        <v>6949091.647604217</v>
+        <v>6949020.70113107</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111790785</v>
+        <v>111792337</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489818.2822038208</v>
+        <v>489763.7116335144</v>
       </c>
       <c r="R4" t="n">
-        <v>6949032.207674611</v>
+        <v>6949091.647604217</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,12 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Många träd med mycket lav i området</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,6 +1021,238 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111919588</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Gillhov, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>490132.6970436619</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6948774.399184751</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111915405</v>
+      </c>
+      <c r="B6" t="n">
+        <v>88946</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>256335</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taggfingersvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ramaria karstenii</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Nordvallen (Nordvallen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>490124.2549094426</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6948875.054878937</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111790785</v>
+        <v>111790625</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489818.2822038208</v>
+        <v>489824.6884970492</v>
       </c>
       <c r="R2" t="n">
-        <v>6949032.207674611</v>
+        <v>6949020.70113107</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Många träd med mycket lav i området</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111790625</v>
+        <v>111790785</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489824.6884970492</v>
+        <v>489818.2822038208</v>
       </c>
       <c r="R3" t="n">
-        <v>6949020.70113107</v>
+        <v>6949032.207674611</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -874,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +879,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Många träd med mycket lav i området</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111790625</v>
+        <v>111792337</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489824.6884970492</v>
+        <v>489763.7116335144</v>
       </c>
       <c r="R2" t="n">
-        <v>6949020.70113107</v>
+        <v>6949091.647604217</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -911,7 +911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111792337</v>
+        <v>111790625</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489763.7116335144</v>
+        <v>489824.6884970492</v>
       </c>
       <c r="R4" t="n">
-        <v>6949091.647604217</v>
+        <v>6949020.70113107</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111792337</v>
+        <v>111790625</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489763.7116335144</v>
+        <v>489824.6884970492</v>
       </c>
       <c r="R2" t="n">
-        <v>6949091.647604217</v>
+        <v>6949020.70113107</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111790785</v>
+        <v>111792337</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489818.2822038208</v>
+        <v>489763.7116335144</v>
       </c>
       <c r="R3" t="n">
-        <v>6949032.207674611</v>
+        <v>6949091.647604217</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,12 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Många träd med mycket lav i området</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111790625</v>
+        <v>111790785</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489824.6884970492</v>
+        <v>489818.2822038208</v>
       </c>
       <c r="R4" t="n">
-        <v>6949020.70113107</v>
+        <v>6949032.207674611</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +992,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Många träd med mycket lav i området</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111790625</v>
+        <v>111790785</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489824.6884970492</v>
+        <v>489818.2822038208</v>
       </c>
       <c r="R2" t="n">
-        <v>6949020.70113107</v>
+        <v>6949032.207674611</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Många träd med mycket lav i området</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111792337</v>
+        <v>111790625</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489763.7116335144</v>
+        <v>489824.6884970492</v>
       </c>
       <c r="R3" t="n">
-        <v>6949091.647604217</v>
+        <v>6949020.70113107</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -869,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111790785</v>
+        <v>111792337</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489818.2822038208</v>
+        <v>489763.7116335144</v>
       </c>
       <c r="R4" t="n">
-        <v>6949032.207674611</v>
+        <v>6949091.647604217</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -982,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,12 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Många träd med mycket lav i området</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,6 +1254,593 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112212105</v>
+      </c>
+      <c r="B7" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Nordvallen (Nordvallen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>490018</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6948882</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112212882</v>
+      </c>
+      <c r="B8" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Kälen (Kälen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>490109</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6948768</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112213279</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Nordvallen (Nordvallen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>490080</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6948907</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112212836</v>
+      </c>
+      <c r="B10" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Stugunäset (Stugunäset), Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>490078</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6948752</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112212902</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Kälen (Kälen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>490134</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6948772</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Marielle Löthman</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489818.2822038208</v>
+        <v>489818</v>
       </c>
       <c r="R2" t="n">
-        <v>6949032.207674611</v>
+        <v>6949032</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111790625</v>
+        <v>111792337</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489824.6884970492</v>
+        <v>489764</v>
       </c>
       <c r="R3" t="n">
-        <v>6949020.70113107</v>
+        <v>6949092</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,7 +911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111792337</v>
+        <v>111790625</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489763.7116335144</v>
+        <v>489825</v>
       </c>
       <c r="R4" t="n">
-        <v>6949091.647604217</v>
+        <v>6949021</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490132.6970436619</v>
+        <v>490133</v>
       </c>
       <c r="R5" t="n">
-        <v>6948774.399184751</v>
+        <v>6948774</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1100,19 +1100,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1183,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490124.2549094426</v>
+        <v>490124</v>
       </c>
       <c r="R6" t="n">
-        <v>6948875.054878937</v>
+        <v>6948875</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1216,19 +1206,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,7 +1236,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112212105</v>
+        <v>112212882</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1294,17 +1274,22 @@
           <t>3</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Nordvallen (Nordvallen), Jmt</t>
+          <t>Kälen (Kälen), Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490018</v>
+        <v>490109</v>
       </c>
       <c r="R7" t="n">
-        <v>6948882</v>
+        <v>6948768</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1336,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1346,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1373,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112212882</v>
+        <v>112212105</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1411,22 +1396,17 @@
           <t>3</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kälen (Kälen), Jmt</t>
+          <t>Nordvallen (Nordvallen), Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490109</v>
+        <v>490018</v>
       </c>
       <c r="R8" t="n">
-        <v>6948768</v>
+        <v>6948882</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1458,7 +1438,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1468,7 +1448,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1495,10 +1475,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112213279</v>
+        <v>112212902</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1511,35 +1491,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Nordvallen (Nordvallen), Jmt</t>
+          <t>Kälen (Kälen), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490080</v>
+        <v>490134</v>
       </c>
       <c r="R9" t="n">
-        <v>6948907</v>
+        <v>6948772</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1608,10 +1588,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112212836</v>
+        <v>112213279</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,48 +1600,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stugunäset (Stugunäset), Jmt</t>
+          <t>Nordvallen (Nordvallen), Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490078</v>
+        <v>490080</v>
       </c>
       <c r="R10" t="n">
-        <v>6948752</v>
+        <v>6948907</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1730,10 +1701,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112212902</v>
+        <v>112212836</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,39 +1713,48 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kälen (Kälen), Jmt</t>
+          <t>Stugunäset (Stugunäset), Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490134</v>
+        <v>490078</v>
       </c>
       <c r="R11" t="n">
-        <v>6948772</v>
+        <v>6948752</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -1027,7 +1027,7 @@
         <v>111919588</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>111915405</v>
       </c>
       <c r="B6" t="n">
-        <v>88946</v>
+        <v>89080</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112212882</v>
+        <v>112212105</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,22 +1274,17 @@
           <t>3</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kälen (Kälen), Jmt</t>
+          <t>Nordvallen (Nordvallen), Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490109</v>
+        <v>490018</v>
       </c>
       <c r="R7" t="n">
-        <v>6948768</v>
+        <v>6948882</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1321,7 +1316,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1326,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1353,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112212105</v>
+        <v>112212882</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1396,17 +1391,22 @@
           <t>3</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Nordvallen (Nordvallen), Jmt</t>
+          <t>Kälen (Kälen), Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490018</v>
+        <v>490109</v>
       </c>
       <c r="R8" t="n">
-        <v>6948882</v>
+        <v>6948768</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1475,10 +1475,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112212902</v>
+        <v>112212836</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96720</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,39 +1487,48 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kälen (Kälen), Jmt</t>
+          <t>Stugunäset (Stugunäset), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490134</v>
+        <v>490078</v>
       </c>
       <c r="R9" t="n">
-        <v>6948772</v>
+        <v>6948752</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1591,7 +1600,7 @@
         <v>112213279</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1701,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112212836</v>
+        <v>112212902</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>78699</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,48 +1722,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Stugunäset (Stugunäset), Jmt</t>
+          <t>Kälen (Kälen), Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490078</v>
+        <v>490134</v>
       </c>
       <c r="R11" t="n">
-        <v>6948752</v>
+        <v>6948772</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -1027,7 +1027,7 @@
         <v>111919588</v>
       </c>
       <c r="B5" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>111915405</v>
       </c>
       <c r="B6" t="n">
-        <v>89080</v>
+        <v>89094</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112212105</v>
+        <v>112212882</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,17 +1274,22 @@
           <t>3</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Nordvallen (Nordvallen), Jmt</t>
+          <t>Kälen (Kälen), Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490018</v>
+        <v>490109</v>
       </c>
       <c r="R7" t="n">
-        <v>6948882</v>
+        <v>6948768</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1316,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1326,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1353,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112212882</v>
+        <v>112212902</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>78713</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,37 +1370,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1403,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490109</v>
+        <v>490134</v>
       </c>
       <c r="R8" t="n">
-        <v>6948768</v>
+        <v>6948772</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1475,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112212836</v>
+        <v>112213279</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,48 +1483,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Stugunäset (Stugunäset), Jmt</t>
+          <t>Nordvallen (Nordvallen), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490078</v>
+        <v>490080</v>
       </c>
       <c r="R9" t="n">
-        <v>6948752</v>
+        <v>6948907</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1597,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112213279</v>
+        <v>112212105</v>
       </c>
       <c r="B10" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1609,28 +1596,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1638,10 +1629,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490080</v>
+        <v>490018</v>
       </c>
       <c r="R10" t="n">
-        <v>6948907</v>
+        <v>6948882</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1673,7 +1664,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1683,7 +1674,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1710,10 +1701,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112212902</v>
+        <v>112212836</v>
       </c>
       <c r="B11" t="n">
-        <v>78699</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1722,39 +1713,48 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kälen (Kälen), Jmt</t>
+          <t>Stugunäset (Stugunäset), Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490134</v>
+        <v>490078</v>
       </c>
       <c r="R11" t="n">
-        <v>6948772</v>
+        <v>6948752</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>

--- a/artfynd/A 4716-2023.xlsx
+++ b/artfynd/A 4716-2023.xlsx
@@ -1236,10 +1236,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112212882</v>
+        <v>112213279</v>
       </c>
       <c r="B7" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1248,48 +1248,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kälen (Kälen), Jmt</t>
+          <t>Nordvallen (Nordvallen), Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490109</v>
+        <v>490080</v>
       </c>
       <c r="R7" t="n">
-        <v>6948768</v>
+        <v>6948907</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1471,10 +1462,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112213279</v>
+        <v>112212836</v>
       </c>
       <c r="B9" t="n">
-        <v>89553</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,39 +1474,48 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Nordvallen (Nordvallen), Jmt</t>
+          <t>Stugunäset (Stugunäset), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490080</v>
+        <v>490078</v>
       </c>
       <c r="R9" t="n">
-        <v>6948907</v>
+        <v>6948752</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112212105</v>
+        <v>112212882</v>
       </c>
       <c r="B10" t="n">
         <v>96735</v>
@@ -1622,17 +1622,22 @@
           <t>3</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Nordvallen (Nordvallen), Jmt</t>
+          <t>Kälen (Kälen), Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490018</v>
+        <v>490109</v>
       </c>
       <c r="R10" t="n">
-        <v>6948882</v>
+        <v>6948768</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1664,7 +1669,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1674,7 +1679,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1701,7 +1706,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112212836</v>
+        <v>112212105</v>
       </c>
       <c r="B11" t="n">
         <v>96735</v>
@@ -1736,25 +1741,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Stugunäset (Stugunäset), Jmt</t>
+          <t>Nordvallen (Nordvallen), Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490078</v>
+        <v>490018</v>
       </c>
       <c r="R11" t="n">
-        <v>6948752</v>
+        <v>6948882</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD11" t="b">
